--- a/data/trans_dic/IP16A03-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/IP16A03-Habitat-trans_dic.xlsx
@@ -646,7 +646,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>10/50</t>
+          <t>Menos de 2</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -656,32 +656,32 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>4,67%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>1,67%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>3,43%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>4,5%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>10,22%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>1,82%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
@@ -691,27 +691,27 @@
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>2,06%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>7,46%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>1,75%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>1,68%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>3,53%</t>
+          <t>0,0%</t>
         </is>
       </c>
     </row>
@@ -724,62 +724,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>1,49; 12,74</t>
+          <t>0; 26,42</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 9,42</t>
+          <t>0; 44,41</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 13,08</t>
+          <t>0; 36,25</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>1,28; 10,55</t>
+          <t>0; 23,25</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>4,39; 19,59</t>
+          <t>0; 14,51</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 9,02</t>
+          <t>0; 23,25</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>0; 2,74</t>
+          <t>0; 23,25</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 10,79</t>
+          <t>0; 15,69</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>3,7; 13,2</t>
+          <t>0; 9,99</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 5,71</t>
+          <t>0; 17,08</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 5,78</t>
+          <t>0; 15,69</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>1,45; 7,67</t>
+          <t>0; 9,99</t>
         </is>
       </c>
     </row>
@@ -926,7 +926,7 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>Capitales</t>
+          <t>10/50</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -936,62 +936,62 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>11,11%</t>
+          <t>4,67%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>1,88%</t>
+          <t>1,67%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>8,77%</t>
+          <t>3,43%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>3,69%</t>
+          <t>4,5%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>2,68%</t>
+          <t>10,22%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>5,15%</t>
+          <t>1,82%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>2,15%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>2,54%</t>
+          <t>2,06%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>7,75%</t>
+          <t>7,46%</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>3,41%</t>
+          <t>1,75%</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>5,32%</t>
+          <t>1,68%</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>3,13%</t>
+          <t>3,53%</t>
         </is>
       </c>
     </row>
@@ -1004,69 +1004,69 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>4,05; 22,53</t>
+          <t>1,49; 12,74</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 10,34</t>
+          <t>0,0; 9,42</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>2,26; 20,02</t>
+          <t>0,0; 13,08</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 11,42</t>
+          <t>1,28; 10,55</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 14,96</t>
+          <t>4,39; 19,59</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>1,69; 13,64</t>
+          <t>0,0; 9,02</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 11,17</t>
+          <t>0; 2,74</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 13,18</t>
+          <t>0,0; 10,79</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>3,43; 15,56</t>
+          <t>3,7; 13,2</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>0,84; 8,81</t>
+          <t>0,0; 5,71</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>2,03; 11,73</t>
+          <t>0,0; 5,78</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>0,9; 8,65</t>
+          <t>1,45; 7,67</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Menos de 2</t>
+          <t>mas de 50</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -1076,62 +1076,62 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>8,01%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>5,28%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>5,32%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,6%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>3,9%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>11,12%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>6,06%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,1%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>6,3%</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>8,07%</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>5,69%</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,86%</t>
         </is>
       </c>
     </row>
@@ -1144,69 +1144,69 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>0; 26,42</t>
+          <t>2,06; 18,02</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>0; 44,41</t>
+          <t>1,7; 14,57</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>0; 36,25</t>
+          <t>0,0; 18,3</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>0; 23,25</t>
+          <t>0,0; 8,25</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>0; 14,51</t>
+          <t>0,0; 14,39</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>0; 23,25</t>
+          <t>4,29; 22,37</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>0; 23,25</t>
+          <t>1,63; 16,55</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>0; 15,69</t>
+          <t>0,0; 7,7</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>0; 9,99</t>
+          <t>2,42; 13,01</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>0; 17,08</t>
+          <t>3,79; 14,15</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>0; 15,69</t>
+          <t>1,7; 12,45</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>0; 9,99</t>
+          <t>0,41; 5,46</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>mas de 50</t>
+          <t>Capitales</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1216,62 +1216,62 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>8,01%</t>
+          <t>11,11%</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>5,28%</t>
+          <t>1,88%</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
+          <t>8,77%</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>3,69%</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>2,68%</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>5,15%</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>2,15%</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>2,54%</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>7,75%</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>3,41%</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
           <t>5,32%</t>
         </is>
       </c>
-      <c r="F12" s="2" t="inlineStr">
-        <is>
-          <t>1,6%</t>
-        </is>
-      </c>
-      <c r="G12" s="2" t="inlineStr">
-        <is>
-          <t>3,9%</t>
-        </is>
-      </c>
-      <c r="H12" s="2" t="inlineStr">
-        <is>
-          <t>11,12%</t>
-        </is>
-      </c>
-      <c r="I12" s="2" t="inlineStr">
-        <is>
-          <t>6,06%</t>
-        </is>
-      </c>
-      <c r="J12" s="2" t="inlineStr">
-        <is>
-          <t>2,1%</t>
-        </is>
-      </c>
-      <c r="K12" s="2" t="inlineStr">
-        <is>
-          <t>6,3%</t>
-        </is>
-      </c>
-      <c r="L12" s="2" t="inlineStr">
-        <is>
-          <t>8,07%</t>
-        </is>
-      </c>
-      <c r="M12" s="2" t="inlineStr">
-        <is>
-          <t>5,69%</t>
-        </is>
-      </c>
       <c r="N12" s="2" t="inlineStr">
         <is>
-          <t>1,86%</t>
+          <t>3,13%</t>
         </is>
       </c>
     </row>
@@ -1284,62 +1284,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>2,06; 18,02</t>
+          <t>4,05; 22,53</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>1,7; 14,57</t>
+          <t>0,0; 10,34</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 18,3</t>
+          <t>2,26; 20,02</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 8,25</t>
+          <t>0,0; 11,42</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 14,39</t>
+          <t>0,0; 14,96</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>4,29; 22,37</t>
+          <t>1,69; 13,64</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>1,63; 16,55</t>
+          <t>0,0; 11,17</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 7,7</t>
+          <t>0,0; 13,18</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>2,42; 13,01</t>
+          <t>3,43; 15,56</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>3,79; 14,15</t>
+          <t>0,84; 8,81</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>1,7; 12,45</t>
+          <t>2,03; 11,73</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>0,41; 5,46</t>
+          <t>0,9; 8,65</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/IP16A03-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/IP16A03-Habitat-trans_dic.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N15"/>
+  <dimension ref="A1:N16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -864,27 +864,27 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 20,47</t>
+          <t>0,0; 20,43</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>2,17; 22,39</t>
+          <t>2,14; 22,01</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 17,11</t>
+          <t>0,0; 16,87</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 19,38</t>
+          <t>0,0; 20,75</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 17,5</t>
+          <t>0,0; 18,55</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
@@ -904,22 +904,22 @@
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>1,31; 13,68</t>
+          <t>1,56; 14,8</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>1,2; 12,44</t>
+          <t>1,19; 12,64</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 8,45</t>
+          <t>0,0; 8,8</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 11,58</t>
+          <t>0,0; 12,49</t>
         </is>
       </c>
     </row>
@@ -1004,32 +1004,32 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>1,49; 12,74</t>
+          <t>1,49; 12,59</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 9,42</t>
+          <t>0,0; 9,45</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 13,08</t>
+          <t>0,0; 11,19</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>1,28; 10,55</t>
+          <t>1,41; 11,25</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>4,39; 19,59</t>
+          <t>4,49; 19,72</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 9,02</t>
+          <t>0,0; 8,99</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
@@ -1039,27 +1039,27 @@
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 10,79</t>
+          <t>0,0; 10,61</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>3,7; 13,2</t>
+          <t>3,71; 13,18</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 5,71</t>
+          <t>0,0; 5,28</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 5,78</t>
+          <t>0,0; 5,51</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>1,45; 7,67</t>
+          <t>1,47; 7,84</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1144,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>2,06; 18,02</t>
+          <t>2,08; 18,77</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>1,7; 14,57</t>
+          <t>1,69; 14,45</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 18,3</t>
+          <t>0,0; 19,82</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 8,25</t>
+          <t>0,0; 7,99</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 14,39</t>
+          <t>0,0; 12,79</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>4,29; 22,37</t>
+          <t>4,57; 23,58</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>1,63; 16,55</t>
+          <t>1,63; 18,73</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 7,7</t>
+          <t>0,0; 8,02</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>2,42; 13,01</t>
+          <t>2,07; 11,98</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>3,79; 14,15</t>
+          <t>3,63; 14,32</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>1,7; 12,45</t>
+          <t>2,39; 13,43</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>0,41; 5,46</t>
+          <t>0,37; 5,15</t>
         </is>
       </c>
     </row>
@@ -1284,62 +1284,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>4,05; 22,53</t>
+          <t>4,26; 21,95</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 10,34</t>
+          <t>0,0; 10,29</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>2,26; 20,02</t>
+          <t>2,18; 19,84</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 11,42</t>
+          <t>0,0; 13,3</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 14,96</t>
+          <t>0,0; 13,73</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>1,69; 13,64</t>
+          <t>1,68; 14,04</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 11,17</t>
+          <t>0,0; 10,95</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 13,18</t>
+          <t>0,0; 16,51</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>3,43; 15,56</t>
+          <t>3,23; 15,39</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>0,84; 8,81</t>
+          <t>0,83; 8,82</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>2,03; 11,73</t>
+          <t>2,06; 11,78</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>0,9; 8,65</t>
+          <t>0,91; 8,27</t>
         </is>
       </c>
     </row>
@@ -1424,62 +1424,69 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>4,47; 11,22</t>
+          <t>4,28; 11,63</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>1,67; 7,26</t>
+          <t>1,82; 7,54</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>2,51; 9,31</t>
+          <t>2,66; 9,05</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>1,54; 6,28</t>
+          <t>1,56; 6,69</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>3,11; 9,78</t>
+          <t>3,23; 9,86</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>2,27; 8,02</t>
+          <t>2,28; 7,88</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>0,55; 4,36</t>
+          <t>0,56; 4,88</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>0,52; 4,74</t>
+          <t>0,51; 4,52</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>4,42; 9,37</t>
+          <t>4,26; 9,15</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>2,62; 6,28</t>
+          <t>2,39; 6,39</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>1,74; 5,68</t>
+          <t>1,95; 5,73</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>1,47; 4,6</t>
+          <t>1,4; 4,45</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/IP16A03-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/IP16A03-Habitat-trans_dic.xlsx
@@ -578,7 +578,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -598,7 +598,7 @@
       </c>
       <c r="I2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="J2" s="3" t="inlineStr">
@@ -618,7 +618,7 @@
       </c>
       <c r="M2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="N2" s="3" t="inlineStr">
@@ -646,7 +646,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Menos de 2</t>
+          <t>&lt;2.000hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -786,7 +786,7 @@
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2/10</t>
+          <t>2-10.000 hab</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -864,27 +864,27 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 20,43</t>
+          <t>0,0; 18,25</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>2,14; 22,01</t>
+          <t>2,13; 22,72</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 16,87</t>
+          <t>0,0; 16,43</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 20,75</t>
+          <t>0,0; 22,14</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 18,55</t>
+          <t>0,0; 17,98</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
@@ -904,29 +904,29 @@
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>1,56; 14,8</t>
+          <t>1,32; 13,46</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>1,19; 12,64</t>
+          <t>1,18; 13,62</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 8,8</t>
+          <t>0,0; 9,62</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 12,49</t>
+          <t>0,0; 10,98</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>10/50</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -1004,32 +1004,32 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>1,49; 12,59</t>
+          <t>1,49; 12,51</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 9,45</t>
+          <t>0,0; 8,52</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 11,19</t>
+          <t>0,0; 11,38</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>1,41; 11,25</t>
+          <t>1,7; 9,9</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>4,49; 19,72</t>
+          <t>4,35; 19,28</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 8,99</t>
+          <t>0,0; 9,15</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
@@ -1039,34 +1039,34 @@
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 10,61</t>
+          <t>0,0; 10,41</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>3,71; 13,18</t>
+          <t>3,95; 13,16</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 5,28</t>
+          <t>0,0; 5,22</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 5,51</t>
+          <t>0,0; 5,88</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>1,47; 7,84</t>
+          <t>1,21; 7,63</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>mas de 50</t>
+          <t>&gt;50.000hab</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -1144,62 +1144,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>2,08; 18,77</t>
+          <t>1,9; 17,41</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>1,69; 14,45</t>
+          <t>1,67; 13,65</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 19,82</t>
+          <t>0,0; 18,78</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 7,99</t>
+          <t>0,0; 9,31</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 12,79</t>
+          <t>0,0; 12,65</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>4,57; 23,58</t>
+          <t>5,07; 23,84</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>1,63; 18,73</t>
+          <t>1,63; 16,37</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 8,02</t>
+          <t>0,0; 8,21</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>2,07; 11,98</t>
+          <t>2,37; 12,47</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>3,63; 14,32</t>
+          <t>3,91; 15,01</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>2,39; 13,43</t>
+          <t>1,92; 13,01</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>0,37; 5,15</t>
+          <t>0,4; 5,46</t>
         </is>
       </c>
     </row>
@@ -1284,62 +1284,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>4,26; 21,95</t>
+          <t>3,89; 22,09</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 10,29</t>
+          <t>0,0; 9,46</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>2,18; 19,84</t>
+          <t>2,36; 21,56</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 13,3</t>
+          <t>0,0; 13,63</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 13,73</t>
+          <t>0,0; 13,56</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>1,68; 14,04</t>
+          <t>1,65; 12,89</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 10,95</t>
+          <t>0,0; 11,11</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 16,51</t>
+          <t>0,0; 12,79</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>3,23; 15,39</t>
+          <t>3,04; 14,16</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>0,83; 8,82</t>
+          <t>0,83; 7,84</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>2,06; 11,78</t>
+          <t>2,08; 11,32</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>0,91; 8,27</t>
+          <t>0,88; 8,37</t>
         </is>
       </c>
     </row>
@@ -1424,62 +1424,62 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>4,28; 11,63</t>
+          <t>4,28; 11,55</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>1,82; 7,54</t>
+          <t>1,83; 7,57</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>2,66; 9,05</t>
+          <t>2,27; 9,39</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>1,56; 6,69</t>
+          <t>1,71; 6,66</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>3,23; 9,86</t>
+          <t>3,1; 9,36</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>2,28; 7,88</t>
+          <t>2,26; 7,61</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>0,56; 4,88</t>
+          <t>0,55; 4,68</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>0,51; 4,52</t>
+          <t>0,52; 4,77</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>4,26; 9,15</t>
+          <t>4,51; 9,2</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>2,39; 6,39</t>
+          <t>2,48; 6,39</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>1,95; 5,73</t>
+          <t>1,96; 5,77</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>1,4; 4,45</t>
+          <t>1,33; 4,26</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/IP16A03-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/IP16A03-Habitat-trans_dic.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N16"/>
+  <dimension ref="A1:N14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -540,7 +540,7 @@
       <c r="B1" s="2" t="n"/>
       <c r="C1" s="3" t="inlineStr">
         <is>
-          <t>Hombre</t>
+          <t>Niña</t>
         </is>
       </c>
       <c r="D1" s="3" t="n"/>
@@ -548,7 +548,7 @@
       <c r="F1" s="3" t="n"/>
       <c r="G1" s="3" t="inlineStr">
         <is>
-          <t>Mujer</t>
+          <t>Niño</t>
         </is>
       </c>
       <c r="H1" s="3" t="n"/>
@@ -646,7 +646,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>&lt;2.000hab</t>
+          <t>&lt;10.000 hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -656,62 +656,62 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
+          <t>4,11%</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
           <t>0,0%</t>
         </is>
       </c>
-      <c r="D4" s="2" t="inlineStr">
+      <c r="E4" s="2" t="inlineStr">
         <is>
           <t>0,0%</t>
         </is>
       </c>
-      <c r="E4" s="2" t="inlineStr">
+      <c r="F4" s="2" t="inlineStr">
         <is>
           <t>0,0%</t>
         </is>
       </c>
-      <c r="F4" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>4,92%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>7,57%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,8%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>4,04%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>4,49%</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>3,96%</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,39%</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,09%</t>
         </is>
       </c>
     </row>
@@ -724,69 +724,69 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0; 26,42</t>
+          <t>0,0; 12,7</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0; 44,41</t>
+          <t>0; 4,55</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0; 36,25</t>
+          <t>0; 5,61</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>0; 23,25</t>
+          <t>0; 4,25</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>0; 14,51</t>
+          <t>0,0; 14,82</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>0; 23,25</t>
+          <t>1,97; 19,5</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>0; 23,25</t>
+          <t>0,0; 12,67</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>0; 15,69</t>
+          <t>0,0; 16,81</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>0; 9,99</t>
+          <t>1,18; 10,52</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>0; 17,08</t>
+          <t>1,02; 10,67</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>0; 15,69</t>
+          <t>0,0; 7,32</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>0; 9,99</t>
+          <t>0,0; 11,19</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2-10.000 hab</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -796,62 +796,62 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>5,91%</t>
+          <t>10,22%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>8,2%</t>
+          <t>1,82%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>3,27%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>4,27%</t>
+          <t>2,13%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>5,83%</t>
+          <t>4,67%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,67%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>3,43%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>4,46%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>5,87%</t>
+          <t>7,46%</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>4,57%</t>
+          <t>1,75%</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>1,76%</t>
+          <t>1,68%</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>2,25%</t>
+          <t>3,51%</t>
         </is>
       </c>
     </row>
@@ -864,69 +864,69 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 18,25</t>
+          <t>4,39; 19,59</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>2,13; 22,72</t>
+          <t>0,0; 9,02</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 16,43</t>
+          <t>0; 2,74</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 22,14</t>
+          <t>0,0; 11,71</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 17,98</t>
+          <t>1,49; 12,74</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>0; 5,45</t>
+          <t>0,0; 9,42</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>0; 7,06</t>
+          <t>0,0; 13,08</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>0; 5,61</t>
+          <t>1,29; 10,5</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>1,32; 13,46</t>
+          <t>3,7; 13,2</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>1,18; 13,62</t>
+          <t>0,0; 5,71</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 9,62</t>
+          <t>0,0; 5,78</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 10,98</t>
+          <t>1,36; 7,72</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>10-50.000 hab</t>
+          <t>&gt;50.000 hab</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -936,62 +936,62 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>4,67%</t>
+          <t>3,9%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>1,67%</t>
+          <t>11,12%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>3,43%</t>
+          <t>6,06%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>4,5%</t>
+          <t>1,54%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>10,22%</t>
+          <t>8,01%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>1,82%</t>
+          <t>5,28%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>5,32%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>2,06%</t>
+          <t>1,53%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>7,46%</t>
+          <t>6,3%</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>1,75%</t>
+          <t>8,07%</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>1,68%</t>
+          <t>5,69%</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>3,53%</t>
+          <t>1,53%</t>
         </is>
       </c>
     </row>
@@ -1004,69 +1004,69 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>1,49; 12,51</t>
+          <t>0,0; 14,39</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 8,52</t>
+          <t>4,29; 22,37</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 11,38</t>
+          <t>1,63; 16,55</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>1,7; 9,9</t>
+          <t>0,0; 6,1</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>4,35; 19,28</t>
+          <t>2,06; 18,02</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 9,15</t>
+          <t>1,7; 14,57</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>0; 2,74</t>
+          <t>0,0; 18,3</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 10,41</t>
+          <t>0,0; 7,93</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>3,95; 13,16</t>
+          <t>2,42; 13,01</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 5,22</t>
+          <t>3,79; 14,15</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 5,88</t>
+          <t>1,7; 12,45</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>1,21; 7,63</t>
+          <t>0,33; 4,9</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>&gt;50.000hab</t>
+          <t>Capitales</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -1076,62 +1076,62 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>8,01%</t>
+          <t>2,68%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>5,28%</t>
+          <t>5,15%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
+          <t>2,15%</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>2,51%</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>11,11%</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>1,88%</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>8,77%</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>3,69%</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>7,75%</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>3,41%</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
           <t>5,32%</t>
         </is>
       </c>
-      <c r="F10" s="2" t="inlineStr">
-        <is>
-          <t>1,6%</t>
-        </is>
-      </c>
-      <c r="G10" s="2" t="inlineStr">
-        <is>
-          <t>3,9%</t>
-        </is>
-      </c>
-      <c r="H10" s="2" t="inlineStr">
-        <is>
-          <t>11,12%</t>
-        </is>
-      </c>
-      <c r="I10" s="2" t="inlineStr">
-        <is>
-          <t>6,06%</t>
-        </is>
-      </c>
-      <c r="J10" s="2" t="inlineStr">
-        <is>
-          <t>2,1%</t>
-        </is>
-      </c>
-      <c r="K10" s="2" t="inlineStr">
-        <is>
-          <t>6,3%</t>
-        </is>
-      </c>
-      <c r="L10" s="2" t="inlineStr">
-        <is>
-          <t>8,07%</t>
-        </is>
-      </c>
-      <c r="M10" s="2" t="inlineStr">
-        <is>
-          <t>5,69%</t>
-        </is>
-      </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>1,86%</t>
+          <t>3,13%</t>
         </is>
       </c>
     </row>
@@ -1144,69 +1144,69 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>1,9; 17,41</t>
+          <t>0,0; 14,96</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>1,67; 13,65</t>
+          <t>1,69; 13,64</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 18,78</t>
+          <t>0,0; 11,17</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 9,31</t>
+          <t>0,0; 13,15</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 12,65</t>
+          <t>4,05; 22,53</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>5,07; 23,84</t>
+          <t>0,0; 10,34</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>1,63; 16,37</t>
+          <t>2,26; 20,02</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 8,21</t>
+          <t>0,0; 11,8</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>2,37; 12,47</t>
+          <t>3,43; 15,56</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>3,91; 15,01</t>
+          <t>0,84; 8,81</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>1,92; 13,01</t>
+          <t>2,03; 11,73</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>0,4; 5,46</t>
+          <t>0,94; 8,58</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>Capitales</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1216,62 +1216,62 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>11,11%</t>
+          <t>5,81%</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>1,88%</t>
+          <t>4,46%</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>8,77%</t>
+          <t>1,87%</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>3,69%</t>
+          <t>1,63%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>2,68%</t>
+          <t>7,27%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>5,15%</t>
+          <t>3,84%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>2,15%</t>
+          <t>5,04%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>2,54%</t>
+          <t>3,34%</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>7,75%</t>
+          <t>6,59%</t>
         </is>
       </c>
       <c r="L12" s="2" t="inlineStr">
         <is>
-          <t>3,41%</t>
+          <t>4,14%</t>
         </is>
       </c>
       <c r="M12" s="2" t="inlineStr">
         <is>
-          <t>5,32%</t>
+          <t>3,43%</t>
         </is>
       </c>
       <c r="N12" s="2" t="inlineStr">
         <is>
-          <t>3,13%</t>
+          <t>2,49%</t>
         </is>
       </c>
     </row>
@@ -1284,214 +1284,74 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>3,89; 22,09</t>
+          <t>3,11; 9,78</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 9,46</t>
+          <t>2,27; 8,02</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>2,36; 21,56</t>
+          <t>0,55; 4,36</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 13,63</t>
+          <t>0,45; 4,48</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 13,56</t>
+          <t>4,47; 11,22</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>1,65; 12,89</t>
+          <t>1,67; 7,26</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 11,11</t>
+          <t>2,51; 9,31</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 12,79</t>
+          <t>1,57; 6,31</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>3,04; 14,16</t>
+          <t>4,42; 9,37</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>0,83; 7,84</t>
+          <t>2,62; 6,28</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>2,08; 11,32</t>
+          <t>1,74; 5,68</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>0,88; 8,37</t>
+          <t>1,36; 4,52</t>
         </is>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="1" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="B14" s="3" t="inlineStr">
-        <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C14" s="2" t="inlineStr">
-        <is>
-          <t>7,27%</t>
-        </is>
-      </c>
-      <c r="D14" s="2" t="inlineStr">
-        <is>
-          <t>3,84%</t>
-        </is>
-      </c>
-      <c r="E14" s="2" t="inlineStr">
-        <is>
-          <t>5,04%</t>
-        </is>
-      </c>
-      <c r="F14" s="2" t="inlineStr">
-        <is>
-          <t>3,31%</t>
-        </is>
-      </c>
-      <c r="G14" s="2" t="inlineStr">
-        <is>
-          <t>5,81%</t>
-        </is>
-      </c>
-      <c r="H14" s="2" t="inlineStr">
-        <is>
-          <t>4,46%</t>
-        </is>
-      </c>
-      <c r="I14" s="2" t="inlineStr">
-        <is>
-          <t>1,87%</t>
-        </is>
-      </c>
-      <c r="J14" s="2" t="inlineStr">
-        <is>
-          <t>1,83%</t>
-        </is>
-      </c>
-      <c r="K14" s="2" t="inlineStr">
-        <is>
-          <t>6,59%</t>
-        </is>
-      </c>
-      <c r="L14" s="2" t="inlineStr">
-        <is>
-          <t>4,14%</t>
-        </is>
-      </c>
-      <c r="M14" s="2" t="inlineStr">
-        <is>
-          <t>3,43%</t>
-        </is>
-      </c>
-      <c r="N14" s="2" t="inlineStr">
-        <is>
-          <t>2,61%</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="n"/>
-      <c r="B15" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C15" s="2" t="inlineStr">
-        <is>
-          <t>4,28; 11,55</t>
-        </is>
-      </c>
-      <c r="D15" s="2" t="inlineStr">
-        <is>
-          <t>1,83; 7,57</t>
-        </is>
-      </c>
-      <c r="E15" s="2" t="inlineStr">
-        <is>
-          <t>2,27; 9,39</t>
-        </is>
-      </c>
-      <c r="F15" s="2" t="inlineStr">
-        <is>
-          <t>1,71; 6,66</t>
-        </is>
-      </c>
-      <c r="G15" s="2" t="inlineStr">
-        <is>
-          <t>3,1; 9,36</t>
-        </is>
-      </c>
-      <c r="H15" s="2" t="inlineStr">
-        <is>
-          <t>2,26; 7,61</t>
-        </is>
-      </c>
-      <c r="I15" s="2" t="inlineStr">
-        <is>
-          <t>0,55; 4,68</t>
-        </is>
-      </c>
-      <c r="J15" s="2" t="inlineStr">
-        <is>
-          <t>0,52; 4,77</t>
-        </is>
-      </c>
-      <c r="K15" s="2" t="inlineStr">
-        <is>
-          <t>4,51; 9,2</t>
-        </is>
-      </c>
-      <c r="L15" s="2" t="inlineStr">
-        <is>
-          <t>2,48; 6,39</t>
-        </is>
-      </c>
-      <c r="M15" s="2" t="inlineStr">
-        <is>
-          <t>1,96; 5,77</t>
-        </is>
-      </c>
-      <c r="N15" s="2" t="inlineStr">
-        <is>
-          <t>1,33; 4,26</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
+      <c r="A14" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
@@ -1501,7 +1361,6 @@
     <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="K1:N1"/>
-    <mergeCell ref="A14:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
